--- a/IO点表模板/西部片区调压站_IO_点表.xlsx
+++ b/IO点表模板/西部片区调压站_IO_点表.xlsx
@@ -811,7 +811,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr"/>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr"/>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I57" s="3" t="inlineStr"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr"/>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr"/>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr"/>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I69" s="3" t="inlineStr"/>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr"/>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I82" s="3" t="inlineStr"/>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr"/>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr"/>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr"/>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr"/>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr"/>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I88" s="3" t="inlineStr"/>
@@ -11358,7 +11358,7 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr"/>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr"/>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr"/>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr"/>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I93" s="3" t="inlineStr"/>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I94" s="3" t="inlineStr"/>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I95" s="3" t="inlineStr"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I96" s="3" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I97" s="3" t="inlineStr"/>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I98" s="3" t="inlineStr"/>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr"/>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr"/>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr"/>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr"/>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr"/>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr"/>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I108" s="3" t="inlineStr"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I109" s="3" t="inlineStr"/>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I110" s="3" t="inlineStr"/>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr"/>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr"/>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>xzX</t>
+          <t>asds</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr"/>

--- a/IO点表模板/西部片区调压站_IO_点表.xlsx
+++ b/IO点表模板/西部片区调压站_IO_点表.xlsx
@@ -811,7 +811,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr"/>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr"/>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I57" s="3" t="inlineStr"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr"/>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr"/>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr"/>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I69" s="3" t="inlineStr"/>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr"/>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I82" s="3" t="inlineStr"/>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr"/>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr"/>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr"/>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr"/>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr"/>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I88" s="3" t="inlineStr"/>
@@ -11358,7 +11358,7 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr"/>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr"/>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr"/>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr"/>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I93" s="3" t="inlineStr"/>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I94" s="3" t="inlineStr"/>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I95" s="3" t="inlineStr"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I96" s="3" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I97" s="3" t="inlineStr"/>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I98" s="3" t="inlineStr"/>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr"/>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr"/>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr"/>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr"/>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr"/>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr"/>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr"/>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I108" s="3" t="inlineStr"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I109" s="3" t="inlineStr"/>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I110" s="3" t="inlineStr"/>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr"/>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr"/>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>asds</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr"/>

--- a/IO点表模板/西部片区调压站_IO_点表.xlsx
+++ b/IO点表模板/西部片区调压站_IO_点表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2020" windowHeight="17740"/>
   </bookViews>
   <sheets>
     <sheet name="IO点表" sheetId="1" r:id="rId1"/>
@@ -3088,14 +3087,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3111,158 +3104,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3275,194 +3123,8 @@
         <bgColor rgb="FFE4E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3485,251 +3147,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3749,57 +3169,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4088,16 +3461,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5848,10 +5221,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>287</v>
@@ -6017,10 +5390,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>310</v>
@@ -6186,10 +5559,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>333</v>
@@ -11064,10 +10437,10 @@
         <v>458</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>586</v>
@@ -11225,10 +10598,10 @@
         <v>458</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>589</v>
@@ -11386,10 +10759,10 @@
         <v>458</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>592</v>
@@ -11547,10 +10920,10 @@
         <v>458</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>595</v>
@@ -11708,10 +11081,10 @@
         <v>458</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>598</v>
@@ -11869,10 +11242,10 @@
         <v>458</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>601</v>
@@ -12030,10 +11403,10 @@
         <v>458</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>604</v>
@@ -12194,7 +11567,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>607</v>
@@ -12355,7 +11728,7 @@
         <v>55</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>612</v>
@@ -12516,7 +11889,7 @@
         <v>55</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>617</v>
@@ -12677,7 +12050,7 @@
         <v>55</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>622</v>
@@ -12838,7 +12211,7 @@
         <v>55</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>627</v>
@@ -12999,7 +12372,7 @@
         <v>55</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>632</v>
@@ -13160,7 +12533,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>637</v>
@@ -13321,7 +12694,7 @@
         <v>55</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>642</v>
@@ -13479,10 +12852,10 @@
         <v>458</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>647</v>
@@ -13640,10 +13013,10 @@
         <v>458</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>650</v>
@@ -13801,10 +13174,10 @@
         <v>458</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>653</v>
@@ -13962,10 +13335,10 @@
         <v>458</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>656</v>
@@ -14123,10 +13496,10 @@
         <v>458</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>659</v>
@@ -14284,10 +13657,10 @@
         <v>458</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>662</v>
@@ -14445,10 +13818,10 @@
         <v>458</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>665</v>
@@ -14606,10 +13979,10 @@
         <v>458</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>668</v>
@@ -14767,10 +14140,10 @@
         <v>458</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>671</v>
@@ -14928,10 +14301,10 @@
         <v>458</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>674</v>
@@ -15089,10 +14462,10 @@
         <v>458</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>677</v>
@@ -15250,10 +14623,10 @@
         <v>458</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>680</v>
@@ -15411,10 +14784,10 @@
         <v>458</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>683</v>
@@ -15572,10 +14945,10 @@
         <v>458</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>686</v>
@@ -15733,10 +15106,10 @@
         <v>458</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>689</v>
@@ -15894,10 +15267,10 @@
         <v>458</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>692</v>
@@ -16055,10 +15428,10 @@
         <v>458</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>695</v>
@@ -16216,10 +15589,10 @@
         <v>458</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>698</v>
@@ -16377,10 +15750,10 @@
         <v>458</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>701</v>
@@ -16538,10 +15911,10 @@
         <v>458</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>704</v>
@@ -16699,10 +16072,10 @@
         <v>458</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>707</v>
@@ -16860,10 +16233,10 @@
         <v>458</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>710</v>
@@ -17021,10 +16394,10 @@
         <v>458</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>713</v>
@@ -17182,10 +16555,10 @@
         <v>458</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>716</v>
@@ -17343,10 +16716,10 @@
         <v>720</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>721</v>
@@ -17504,10 +16877,10 @@
         <v>720</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>726</v>
@@ -17665,10 +17038,10 @@
         <v>720</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>731</v>
@@ -17826,10 +17199,10 @@
         <v>720</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>736</v>
@@ -17987,10 +17360,10 @@
         <v>720</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>741</v>
@@ -18148,10 +17521,10 @@
         <v>720</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>746</v>
@@ -18309,10 +17682,10 @@
         <v>720</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>751</v>
@@ -18470,10 +17843,10 @@
         <v>720</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>756</v>
@@ -18631,10 +18004,10 @@
         <v>720</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>761</v>
@@ -18792,10 +18165,10 @@
         <v>720</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>766</v>
@@ -18953,10 +18326,10 @@
         <v>720</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>771</v>
@@ -19114,10 +18487,10 @@
         <v>720</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>776</v>
@@ -19275,10 +18648,10 @@
         <v>720</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>781</v>
@@ -19436,10 +18809,10 @@
         <v>720</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>784</v>
@@ -19597,10 +18970,10 @@
         <v>720</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>787</v>
@@ -19758,10 +19131,10 @@
         <v>720</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>790</v>
@@ -19919,10 +19292,10 @@
         <v>720</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>793</v>
@@ -20080,10 +19453,10 @@
         <v>720</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>796</v>
@@ -20241,10 +19614,10 @@
         <v>720</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>799</v>
@@ -20402,10 +19775,10 @@
         <v>720</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>802</v>
@@ -20563,10 +19936,10 @@
         <v>720</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>805</v>
@@ -20724,10 +20097,10 @@
         <v>720</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>808</v>
@@ -20885,10 +20258,10 @@
         <v>720</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>811</v>
@@ -21046,10 +20419,10 @@
         <v>720</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>814</v>
@@ -21207,10 +20580,10 @@
         <v>720</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>817</v>
@@ -21368,10 +20741,10 @@
         <v>720</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>820</v>
@@ -21529,10 +20902,10 @@
         <v>720</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>823</v>
@@ -21690,10 +21063,10 @@
         <v>720</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>826</v>
@@ -21851,10 +21224,10 @@
         <v>720</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>829</v>
@@ -22012,10 +21385,10 @@
         <v>720</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>832</v>
@@ -22173,10 +21546,10 @@
         <v>720</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>835</v>
@@ -22334,10 +21707,10 @@
         <v>720</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>838</v>
@@ -22485,19 +21858,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -23053,19 +22423,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -24005,7 +23372,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/IO点表模板/西部片区调压站_IO_点表.xlsx
+++ b/IO点表模板/西部片区调压站_IO_点表.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA113"/>
+  <dimension ref="A1:BA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr"/>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr"/>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I57" s="3" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr"/>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr"/>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr"/>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr"/>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr"/>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr"/>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I69" s="3" t="inlineStr"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr"/>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>sdfdsf</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -10622,3238 +10622,6 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_0</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I82" s="3" t="inlineStr"/>
-      <c r="J82" s="3" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N82" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr"/>
-      <c r="Q82" s="2" t="inlineStr"/>
-      <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
-      <c r="T82" s="2" t="inlineStr"/>
-      <c r="U82" s="2" t="inlineStr"/>
-      <c r="V82" s="2" t="inlineStr"/>
-      <c r="W82" s="2" t="inlineStr"/>
-      <c r="X82" s="2" t="inlineStr"/>
-      <c r="Y82" s="2" t="inlineStr"/>
-      <c r="Z82" s="2" t="inlineStr"/>
-      <c r="AA82" s="2" t="inlineStr"/>
-      <c r="AB82" s="2" t="inlineStr"/>
-      <c r="AC82" s="2" t="inlineStr"/>
-      <c r="AD82" s="2" t="inlineStr"/>
-      <c r="AE82" s="2" t="inlineStr"/>
-      <c r="AF82" s="2" t="inlineStr"/>
-      <c r="AG82" s="2" t="inlineStr"/>
-      <c r="AH82" s="2" t="inlineStr"/>
-      <c r="AI82" s="2" t="inlineStr"/>
-      <c r="AJ82" s="2" t="inlineStr"/>
-      <c r="AK82" s="2" t="inlineStr"/>
-      <c r="AL82" s="2" t="inlineStr"/>
-      <c r="AM82" s="2" t="inlineStr"/>
-      <c r="AN82" s="2" t="inlineStr"/>
-      <c r="AO82" s="2" t="inlineStr"/>
-      <c r="AP82" s="2" t="inlineStr"/>
-      <c r="AQ82" s="2" t="inlineStr"/>
-      <c r="AR82" s="2" t="inlineStr"/>
-      <c r="AS82" s="2" t="inlineStr"/>
-      <c r="AT82" s="2" t="inlineStr"/>
-      <c r="AU82" s="2" t="inlineStr"/>
-      <c r="AV82" s="2" t="inlineStr"/>
-      <c r="AW82" s="2" t="inlineStr"/>
-      <c r="AX82" s="2" t="inlineStr"/>
-      <c r="AY82" s="2" t="inlineStr"/>
-      <c r="AZ82" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.0</t>
-        </is>
-      </c>
-      <c r="BA82" s="2" t="inlineStr">
-        <is>
-          <t>3305</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_1</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I83" s="3" t="inlineStr"/>
-      <c r="J83" s="3" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M83" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N83" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O83" s="2" t="inlineStr"/>
-      <c r="P83" s="2" t="inlineStr"/>
-      <c r="Q83" s="2" t="inlineStr"/>
-      <c r="R83" s="2" t="inlineStr"/>
-      <c r="S83" s="2" t="inlineStr"/>
-      <c r="T83" s="2" t="inlineStr"/>
-      <c r="U83" s="2" t="inlineStr"/>
-      <c r="V83" s="2" t="inlineStr"/>
-      <c r="W83" s="2" t="inlineStr"/>
-      <c r="X83" s="2" t="inlineStr"/>
-      <c r="Y83" s="2" t="inlineStr"/>
-      <c r="Z83" s="2" t="inlineStr"/>
-      <c r="AA83" s="2" t="inlineStr"/>
-      <c r="AB83" s="2" t="inlineStr"/>
-      <c r="AC83" s="2" t="inlineStr"/>
-      <c r="AD83" s="2" t="inlineStr"/>
-      <c r="AE83" s="2" t="inlineStr"/>
-      <c r="AF83" s="2" t="inlineStr"/>
-      <c r="AG83" s="2" t="inlineStr"/>
-      <c r="AH83" s="2" t="inlineStr"/>
-      <c r="AI83" s="2" t="inlineStr"/>
-      <c r="AJ83" s="2" t="inlineStr"/>
-      <c r="AK83" s="2" t="inlineStr"/>
-      <c r="AL83" s="2" t="inlineStr"/>
-      <c r="AM83" s="2" t="inlineStr"/>
-      <c r="AN83" s="2" t="inlineStr"/>
-      <c r="AO83" s="2" t="inlineStr"/>
-      <c r="AP83" s="2" t="inlineStr"/>
-      <c r="AQ83" s="2" t="inlineStr"/>
-      <c r="AR83" s="2" t="inlineStr"/>
-      <c r="AS83" s="2" t="inlineStr"/>
-      <c r="AT83" s="2" t="inlineStr"/>
-      <c r="AU83" s="2" t="inlineStr"/>
-      <c r="AV83" s="2" t="inlineStr"/>
-      <c r="AW83" s="2" t="inlineStr"/>
-      <c r="AX83" s="2" t="inlineStr"/>
-      <c r="AY83" s="2" t="inlineStr"/>
-      <c r="AZ83" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.1</t>
-        </is>
-      </c>
-      <c r="BA83" s="2" t="inlineStr">
-        <is>
-          <t>3306</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr"/>
-      <c r="E84" s="3" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_2</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I84" s="3" t="inlineStr"/>
-      <c r="J84" s="3" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M84" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N84" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O84" s="2" t="inlineStr"/>
-      <c r="P84" s="2" t="inlineStr"/>
-      <c r="Q84" s="2" t="inlineStr"/>
-      <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="inlineStr"/>
-      <c r="T84" s="2" t="inlineStr"/>
-      <c r="U84" s="2" t="inlineStr"/>
-      <c r="V84" s="2" t="inlineStr"/>
-      <c r="W84" s="2" t="inlineStr"/>
-      <c r="X84" s="2" t="inlineStr"/>
-      <c r="Y84" s="2" t="inlineStr"/>
-      <c r="Z84" s="2" t="inlineStr"/>
-      <c r="AA84" s="2" t="inlineStr"/>
-      <c r="AB84" s="2" t="inlineStr"/>
-      <c r="AC84" s="2" t="inlineStr"/>
-      <c r="AD84" s="2" t="inlineStr"/>
-      <c r="AE84" s="2" t="inlineStr"/>
-      <c r="AF84" s="2" t="inlineStr"/>
-      <c r="AG84" s="2" t="inlineStr"/>
-      <c r="AH84" s="2" t="inlineStr"/>
-      <c r="AI84" s="2" t="inlineStr"/>
-      <c r="AJ84" s="2" t="inlineStr"/>
-      <c r="AK84" s="2" t="inlineStr"/>
-      <c r="AL84" s="2" t="inlineStr"/>
-      <c r="AM84" s="2" t="inlineStr"/>
-      <c r="AN84" s="2" t="inlineStr"/>
-      <c r="AO84" s="2" t="inlineStr"/>
-      <c r="AP84" s="2" t="inlineStr"/>
-      <c r="AQ84" s="2" t="inlineStr"/>
-      <c r="AR84" s="2" t="inlineStr"/>
-      <c r="AS84" s="2" t="inlineStr"/>
-      <c r="AT84" s="2" t="inlineStr"/>
-      <c r="AU84" s="2" t="inlineStr"/>
-      <c r="AV84" s="2" t="inlineStr"/>
-      <c r="AW84" s="2" t="inlineStr"/>
-      <c r="AX84" s="2" t="inlineStr"/>
-      <c r="AY84" s="2" t="inlineStr"/>
-      <c r="AZ84" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.2</t>
-        </is>
-      </c>
-      <c r="BA84" s="2" t="inlineStr">
-        <is>
-          <t>3307</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr"/>
-      <c r="E85" s="3" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_3</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I85" s="3" t="inlineStr"/>
-      <c r="J85" s="3" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M85" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N85" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O85" s="2" t="inlineStr"/>
-      <c r="P85" s="2" t="inlineStr"/>
-      <c r="Q85" s="2" t="inlineStr"/>
-      <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr"/>
-      <c r="T85" s="2" t="inlineStr"/>
-      <c r="U85" s="2" t="inlineStr"/>
-      <c r="V85" s="2" t="inlineStr"/>
-      <c r="W85" s="2" t="inlineStr"/>
-      <c r="X85" s="2" t="inlineStr"/>
-      <c r="Y85" s="2" t="inlineStr"/>
-      <c r="Z85" s="2" t="inlineStr"/>
-      <c r="AA85" s="2" t="inlineStr"/>
-      <c r="AB85" s="2" t="inlineStr"/>
-      <c r="AC85" s="2" t="inlineStr"/>
-      <c r="AD85" s="2" t="inlineStr"/>
-      <c r="AE85" s="2" t="inlineStr"/>
-      <c r="AF85" s="2" t="inlineStr"/>
-      <c r="AG85" s="2" t="inlineStr"/>
-      <c r="AH85" s="2" t="inlineStr"/>
-      <c r="AI85" s="2" t="inlineStr"/>
-      <c r="AJ85" s="2" t="inlineStr"/>
-      <c r="AK85" s="2" t="inlineStr"/>
-      <c r="AL85" s="2" t="inlineStr"/>
-      <c r="AM85" s="2" t="inlineStr"/>
-      <c r="AN85" s="2" t="inlineStr"/>
-      <c r="AO85" s="2" t="inlineStr"/>
-      <c r="AP85" s="2" t="inlineStr"/>
-      <c r="AQ85" s="2" t="inlineStr"/>
-      <c r="AR85" s="2" t="inlineStr"/>
-      <c r="AS85" s="2" t="inlineStr"/>
-      <c r="AT85" s="2" t="inlineStr"/>
-      <c r="AU85" s="2" t="inlineStr"/>
-      <c r="AV85" s="2" t="inlineStr"/>
-      <c r="AW85" s="2" t="inlineStr"/>
-      <c r="AX85" s="2" t="inlineStr"/>
-      <c r="AY85" s="2" t="inlineStr"/>
-      <c r="AZ85" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.3</t>
-        </is>
-      </c>
-      <c r="BA85" s="2" t="inlineStr">
-        <is>
-          <t>3308</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr"/>
-      <c r="E86" s="3" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_4</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I86" s="3" t="inlineStr"/>
-      <c r="J86" s="3" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M86" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N86" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O86" s="2" t="inlineStr"/>
-      <c r="P86" s="2" t="inlineStr"/>
-      <c r="Q86" s="2" t="inlineStr"/>
-      <c r="R86" s="2" t="inlineStr"/>
-      <c r="S86" s="2" t="inlineStr"/>
-      <c r="T86" s="2" t="inlineStr"/>
-      <c r="U86" s="2" t="inlineStr"/>
-      <c r="V86" s="2" t="inlineStr"/>
-      <c r="W86" s="2" t="inlineStr"/>
-      <c r="X86" s="2" t="inlineStr"/>
-      <c r="Y86" s="2" t="inlineStr"/>
-      <c r="Z86" s="2" t="inlineStr"/>
-      <c r="AA86" s="2" t="inlineStr"/>
-      <c r="AB86" s="2" t="inlineStr"/>
-      <c r="AC86" s="2" t="inlineStr"/>
-      <c r="AD86" s="2" t="inlineStr"/>
-      <c r="AE86" s="2" t="inlineStr"/>
-      <c r="AF86" s="2" t="inlineStr"/>
-      <c r="AG86" s="2" t="inlineStr"/>
-      <c r="AH86" s="2" t="inlineStr"/>
-      <c r="AI86" s="2" t="inlineStr"/>
-      <c r="AJ86" s="2" t="inlineStr"/>
-      <c r="AK86" s="2" t="inlineStr"/>
-      <c r="AL86" s="2" t="inlineStr"/>
-      <c r="AM86" s="2" t="inlineStr"/>
-      <c r="AN86" s="2" t="inlineStr"/>
-      <c r="AO86" s="2" t="inlineStr"/>
-      <c r="AP86" s="2" t="inlineStr"/>
-      <c r="AQ86" s="2" t="inlineStr"/>
-      <c r="AR86" s="2" t="inlineStr"/>
-      <c r="AS86" s="2" t="inlineStr"/>
-      <c r="AT86" s="2" t="inlineStr"/>
-      <c r="AU86" s="2" t="inlineStr"/>
-      <c r="AV86" s="2" t="inlineStr"/>
-      <c r="AW86" s="2" t="inlineStr"/>
-      <c r="AX86" s="2" t="inlineStr"/>
-      <c r="AY86" s="2" t="inlineStr"/>
-      <c r="AZ86" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.4</t>
-        </is>
-      </c>
-      <c r="BA86" s="2" t="inlineStr">
-        <is>
-          <t>3309</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr"/>
-      <c r="E87" s="3" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_5</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I87" s="3" t="inlineStr"/>
-      <c r="J87" s="3" t="inlineStr"/>
-      <c r="K87" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L87" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N87" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O87" s="2" t="inlineStr"/>
-      <c r="P87" s="2" t="inlineStr"/>
-      <c r="Q87" s="2" t="inlineStr"/>
-      <c r="R87" s="2" t="inlineStr"/>
-      <c r="S87" s="2" t="inlineStr"/>
-      <c r="T87" s="2" t="inlineStr"/>
-      <c r="U87" s="2" t="inlineStr"/>
-      <c r="V87" s="2" t="inlineStr"/>
-      <c r="W87" s="2" t="inlineStr"/>
-      <c r="X87" s="2" t="inlineStr"/>
-      <c r="Y87" s="2" t="inlineStr"/>
-      <c r="Z87" s="2" t="inlineStr"/>
-      <c r="AA87" s="2" t="inlineStr"/>
-      <c r="AB87" s="2" t="inlineStr"/>
-      <c r="AC87" s="2" t="inlineStr"/>
-      <c r="AD87" s="2" t="inlineStr"/>
-      <c r="AE87" s="2" t="inlineStr"/>
-      <c r="AF87" s="2" t="inlineStr"/>
-      <c r="AG87" s="2" t="inlineStr"/>
-      <c r="AH87" s="2" t="inlineStr"/>
-      <c r="AI87" s="2" t="inlineStr"/>
-      <c r="AJ87" s="2" t="inlineStr"/>
-      <c r="AK87" s="2" t="inlineStr"/>
-      <c r="AL87" s="2" t="inlineStr"/>
-      <c r="AM87" s="2" t="inlineStr"/>
-      <c r="AN87" s="2" t="inlineStr"/>
-      <c r="AO87" s="2" t="inlineStr"/>
-      <c r="AP87" s="2" t="inlineStr"/>
-      <c r="AQ87" s="2" t="inlineStr"/>
-      <c r="AR87" s="2" t="inlineStr"/>
-      <c r="AS87" s="2" t="inlineStr"/>
-      <c r="AT87" s="2" t="inlineStr"/>
-      <c r="AU87" s="2" t="inlineStr"/>
-      <c r="AV87" s="2" t="inlineStr"/>
-      <c r="AW87" s="2" t="inlineStr"/>
-      <c r="AX87" s="2" t="inlineStr"/>
-      <c r="AY87" s="2" t="inlineStr"/>
-      <c r="AZ87" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.5</t>
-        </is>
-      </c>
-      <c r="BA87" s="2" t="inlineStr">
-        <is>
-          <t>3310</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr"/>
-      <c r="E88" s="3" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_6</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I88" s="3" t="inlineStr"/>
-      <c r="J88" s="3" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M88" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N88" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O88" s="2" t="inlineStr"/>
-      <c r="P88" s="2" t="inlineStr"/>
-      <c r="Q88" s="2" t="inlineStr"/>
-      <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="inlineStr"/>
-      <c r="T88" s="2" t="inlineStr"/>
-      <c r="U88" s="2" t="inlineStr"/>
-      <c r="V88" s="2" t="inlineStr"/>
-      <c r="W88" s="2" t="inlineStr"/>
-      <c r="X88" s="2" t="inlineStr"/>
-      <c r="Y88" s="2" t="inlineStr"/>
-      <c r="Z88" s="2" t="inlineStr"/>
-      <c r="AA88" s="2" t="inlineStr"/>
-      <c r="AB88" s="2" t="inlineStr"/>
-      <c r="AC88" s="2" t="inlineStr"/>
-      <c r="AD88" s="2" t="inlineStr"/>
-      <c r="AE88" s="2" t="inlineStr"/>
-      <c r="AF88" s="2" t="inlineStr"/>
-      <c r="AG88" s="2" t="inlineStr"/>
-      <c r="AH88" s="2" t="inlineStr"/>
-      <c r="AI88" s="2" t="inlineStr"/>
-      <c r="AJ88" s="2" t="inlineStr"/>
-      <c r="AK88" s="2" t="inlineStr"/>
-      <c r="AL88" s="2" t="inlineStr"/>
-      <c r="AM88" s="2" t="inlineStr"/>
-      <c r="AN88" s="2" t="inlineStr"/>
-      <c r="AO88" s="2" t="inlineStr"/>
-      <c r="AP88" s="2" t="inlineStr"/>
-      <c r="AQ88" s="2" t="inlineStr"/>
-      <c r="AR88" s="2" t="inlineStr"/>
-      <c r="AS88" s="2" t="inlineStr"/>
-      <c r="AT88" s="2" t="inlineStr"/>
-      <c r="AU88" s="2" t="inlineStr"/>
-      <c r="AV88" s="2" t="inlineStr"/>
-      <c r="AW88" s="2" t="inlineStr"/>
-      <c r="AX88" s="2" t="inlineStr"/>
-      <c r="AY88" s="2" t="inlineStr"/>
-      <c r="AZ88" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.6</t>
-        </is>
-      </c>
-      <c r="BA88" s="2" t="inlineStr">
-        <is>
-          <t>3311</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr"/>
-      <c r="E89" s="3" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_7</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I89" s="3" t="inlineStr"/>
-      <c r="J89" s="3" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M89" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N89" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O89" s="2" t="inlineStr"/>
-      <c r="P89" s="2" t="inlineStr"/>
-      <c r="Q89" s="2" t="inlineStr"/>
-      <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="inlineStr"/>
-      <c r="T89" s="2" t="inlineStr"/>
-      <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
-      <c r="W89" s="2" t="inlineStr"/>
-      <c r="X89" s="2" t="inlineStr"/>
-      <c r="Y89" s="2" t="inlineStr"/>
-      <c r="Z89" s="2" t="inlineStr"/>
-      <c r="AA89" s="2" t="inlineStr"/>
-      <c r="AB89" s="2" t="inlineStr"/>
-      <c r="AC89" s="2" t="inlineStr"/>
-      <c r="AD89" s="2" t="inlineStr"/>
-      <c r="AE89" s="2" t="inlineStr"/>
-      <c r="AF89" s="2" t="inlineStr"/>
-      <c r="AG89" s="2" t="inlineStr"/>
-      <c r="AH89" s="2" t="inlineStr"/>
-      <c r="AI89" s="2" t="inlineStr"/>
-      <c r="AJ89" s="2" t="inlineStr"/>
-      <c r="AK89" s="2" t="inlineStr"/>
-      <c r="AL89" s="2" t="inlineStr"/>
-      <c r="AM89" s="2" t="inlineStr"/>
-      <c r="AN89" s="2" t="inlineStr"/>
-      <c r="AO89" s="2" t="inlineStr"/>
-      <c r="AP89" s="2" t="inlineStr"/>
-      <c r="AQ89" s="2" t="inlineStr"/>
-      <c r="AR89" s="2" t="inlineStr"/>
-      <c r="AS89" s="2" t="inlineStr"/>
-      <c r="AT89" s="2" t="inlineStr"/>
-      <c r="AU89" s="2" t="inlineStr"/>
-      <c r="AV89" s="2" t="inlineStr"/>
-      <c r="AW89" s="2" t="inlineStr"/>
-      <c r="AX89" s="2" t="inlineStr"/>
-      <c r="AY89" s="2" t="inlineStr"/>
-      <c r="AZ89" s="2" t="inlineStr">
-        <is>
-          <t>%MX38.7</t>
-        </is>
-      </c>
-      <c r="BA89" s="2" t="inlineStr">
-        <is>
-          <t>3312</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_8</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I90" s="3" t="inlineStr"/>
-      <c r="J90" s="3" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M90" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N90" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O90" s="2" t="inlineStr"/>
-      <c r="P90" s="2" t="inlineStr"/>
-      <c r="Q90" s="2" t="inlineStr"/>
-      <c r="R90" s="2" t="inlineStr"/>
-      <c r="S90" s="2" t="inlineStr"/>
-      <c r="T90" s="2" t="inlineStr"/>
-      <c r="U90" s="2" t="inlineStr"/>
-      <c r="V90" s="2" t="inlineStr"/>
-      <c r="W90" s="2" t="inlineStr"/>
-      <c r="X90" s="2" t="inlineStr"/>
-      <c r="Y90" s="2" t="inlineStr"/>
-      <c r="Z90" s="2" t="inlineStr"/>
-      <c r="AA90" s="2" t="inlineStr"/>
-      <c r="AB90" s="2" t="inlineStr"/>
-      <c r="AC90" s="2" t="inlineStr"/>
-      <c r="AD90" s="2" t="inlineStr"/>
-      <c r="AE90" s="2" t="inlineStr"/>
-      <c r="AF90" s="2" t="inlineStr"/>
-      <c r="AG90" s="2" t="inlineStr"/>
-      <c r="AH90" s="2" t="inlineStr"/>
-      <c r="AI90" s="2" t="inlineStr"/>
-      <c r="AJ90" s="2" t="inlineStr"/>
-      <c r="AK90" s="2" t="inlineStr"/>
-      <c r="AL90" s="2" t="inlineStr"/>
-      <c r="AM90" s="2" t="inlineStr"/>
-      <c r="AN90" s="2" t="inlineStr"/>
-      <c r="AO90" s="2" t="inlineStr"/>
-      <c r="AP90" s="2" t="inlineStr"/>
-      <c r="AQ90" s="2" t="inlineStr"/>
-      <c r="AR90" s="2" t="inlineStr"/>
-      <c r="AS90" s="2" t="inlineStr"/>
-      <c r="AT90" s="2" t="inlineStr"/>
-      <c r="AU90" s="2" t="inlineStr"/>
-      <c r="AV90" s="2" t="inlineStr"/>
-      <c r="AW90" s="2" t="inlineStr"/>
-      <c r="AX90" s="2" t="inlineStr"/>
-      <c r="AY90" s="2" t="inlineStr"/>
-      <c r="AZ90" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.0</t>
-        </is>
-      </c>
-      <c r="BA90" s="2" t="inlineStr">
-        <is>
-          <t>3313</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr"/>
-      <c r="E91" s="3" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_9</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I91" s="3" t="inlineStr"/>
-      <c r="J91" s="3" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L91" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M91" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N91" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O91" s="2" t="inlineStr"/>
-      <c r="P91" s="2" t="inlineStr"/>
-      <c r="Q91" s="2" t="inlineStr"/>
-      <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr"/>
-      <c r="T91" s="2" t="inlineStr"/>
-      <c r="U91" s="2" t="inlineStr"/>
-      <c r="V91" s="2" t="inlineStr"/>
-      <c r="W91" s="2" t="inlineStr"/>
-      <c r="X91" s="2" t="inlineStr"/>
-      <c r="Y91" s="2" t="inlineStr"/>
-      <c r="Z91" s="2" t="inlineStr"/>
-      <c r="AA91" s="2" t="inlineStr"/>
-      <c r="AB91" s="2" t="inlineStr"/>
-      <c r="AC91" s="2" t="inlineStr"/>
-      <c r="AD91" s="2" t="inlineStr"/>
-      <c r="AE91" s="2" t="inlineStr"/>
-      <c r="AF91" s="2" t="inlineStr"/>
-      <c r="AG91" s="2" t="inlineStr"/>
-      <c r="AH91" s="2" t="inlineStr"/>
-      <c r="AI91" s="2" t="inlineStr"/>
-      <c r="AJ91" s="2" t="inlineStr"/>
-      <c r="AK91" s="2" t="inlineStr"/>
-      <c r="AL91" s="2" t="inlineStr"/>
-      <c r="AM91" s="2" t="inlineStr"/>
-      <c r="AN91" s="2" t="inlineStr"/>
-      <c r="AO91" s="2" t="inlineStr"/>
-      <c r="AP91" s="2" t="inlineStr"/>
-      <c r="AQ91" s="2" t="inlineStr"/>
-      <c r="AR91" s="2" t="inlineStr"/>
-      <c r="AS91" s="2" t="inlineStr"/>
-      <c r="AT91" s="2" t="inlineStr"/>
-      <c r="AU91" s="2" t="inlineStr"/>
-      <c r="AV91" s="2" t="inlineStr"/>
-      <c r="AW91" s="2" t="inlineStr"/>
-      <c r="AX91" s="2" t="inlineStr"/>
-      <c r="AY91" s="2" t="inlineStr"/>
-      <c r="AZ91" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.1</t>
-        </is>
-      </c>
-      <c r="BA91" s="2" t="inlineStr">
-        <is>
-          <t>3314</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_10</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I92" s="3" t="inlineStr"/>
-      <c r="J92" s="3" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N92" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O92" s="2" t="inlineStr"/>
-      <c r="P92" s="2" t="inlineStr"/>
-      <c r="Q92" s="2" t="inlineStr"/>
-      <c r="R92" s="2" t="inlineStr"/>
-      <c r="S92" s="2" t="inlineStr"/>
-      <c r="T92" s="2" t="inlineStr"/>
-      <c r="U92" s="2" t="inlineStr"/>
-      <c r="V92" s="2" t="inlineStr"/>
-      <c r="W92" s="2" t="inlineStr"/>
-      <c r="X92" s="2" t="inlineStr"/>
-      <c r="Y92" s="2" t="inlineStr"/>
-      <c r="Z92" s="2" t="inlineStr"/>
-      <c r="AA92" s="2" t="inlineStr"/>
-      <c r="AB92" s="2" t="inlineStr"/>
-      <c r="AC92" s="2" t="inlineStr"/>
-      <c r="AD92" s="2" t="inlineStr"/>
-      <c r="AE92" s="2" t="inlineStr"/>
-      <c r="AF92" s="2" t="inlineStr"/>
-      <c r="AG92" s="2" t="inlineStr"/>
-      <c r="AH92" s="2" t="inlineStr"/>
-      <c r="AI92" s="2" t="inlineStr"/>
-      <c r="AJ92" s="2" t="inlineStr"/>
-      <c r="AK92" s="2" t="inlineStr"/>
-      <c r="AL92" s="2" t="inlineStr"/>
-      <c r="AM92" s="2" t="inlineStr"/>
-      <c r="AN92" s="2" t="inlineStr"/>
-      <c r="AO92" s="2" t="inlineStr"/>
-      <c r="AP92" s="2" t="inlineStr"/>
-      <c r="AQ92" s="2" t="inlineStr"/>
-      <c r="AR92" s="2" t="inlineStr"/>
-      <c r="AS92" s="2" t="inlineStr"/>
-      <c r="AT92" s="2" t="inlineStr"/>
-      <c r="AU92" s="2" t="inlineStr"/>
-      <c r="AV92" s="2" t="inlineStr"/>
-      <c r="AW92" s="2" t="inlineStr"/>
-      <c r="AX92" s="2" t="inlineStr"/>
-      <c r="AY92" s="2" t="inlineStr"/>
-      <c r="AZ92" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.2</t>
-        </is>
-      </c>
-      <c r="BA92" s="2" t="inlineStr">
-        <is>
-          <t>3315</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_11</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I93" s="3" t="inlineStr"/>
-      <c r="J93" s="3" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M93" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N93" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O93" s="2" t="inlineStr"/>
-      <c r="P93" s="2" t="inlineStr"/>
-      <c r="Q93" s="2" t="inlineStr"/>
-      <c r="R93" s="2" t="inlineStr"/>
-      <c r="S93" s="2" t="inlineStr"/>
-      <c r="T93" s="2" t="inlineStr"/>
-      <c r="U93" s="2" t="inlineStr"/>
-      <c r="V93" s="2" t="inlineStr"/>
-      <c r="W93" s="2" t="inlineStr"/>
-      <c r="X93" s="2" t="inlineStr"/>
-      <c r="Y93" s="2" t="inlineStr"/>
-      <c r="Z93" s="2" t="inlineStr"/>
-      <c r="AA93" s="2" t="inlineStr"/>
-      <c r="AB93" s="2" t="inlineStr"/>
-      <c r="AC93" s="2" t="inlineStr"/>
-      <c r="AD93" s="2" t="inlineStr"/>
-      <c r="AE93" s="2" t="inlineStr"/>
-      <c r="AF93" s="2" t="inlineStr"/>
-      <c r="AG93" s="2" t="inlineStr"/>
-      <c r="AH93" s="2" t="inlineStr"/>
-      <c r="AI93" s="2" t="inlineStr"/>
-      <c r="AJ93" s="2" t="inlineStr"/>
-      <c r="AK93" s="2" t="inlineStr"/>
-      <c r="AL93" s="2" t="inlineStr"/>
-      <c r="AM93" s="2" t="inlineStr"/>
-      <c r="AN93" s="2" t="inlineStr"/>
-      <c r="AO93" s="2" t="inlineStr"/>
-      <c r="AP93" s="2" t="inlineStr"/>
-      <c r="AQ93" s="2" t="inlineStr"/>
-      <c r="AR93" s="2" t="inlineStr"/>
-      <c r="AS93" s="2" t="inlineStr"/>
-      <c r="AT93" s="2" t="inlineStr"/>
-      <c r="AU93" s="2" t="inlineStr"/>
-      <c r="AV93" s="2" t="inlineStr"/>
-      <c r="AW93" s="2" t="inlineStr"/>
-      <c r="AX93" s="2" t="inlineStr"/>
-      <c r="AY93" s="2" t="inlineStr"/>
-      <c r="AZ93" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.3</t>
-        </is>
-      </c>
-      <c r="BA93" s="2" t="inlineStr">
-        <is>
-          <t>3316</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_12</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I94" s="3" t="inlineStr"/>
-      <c r="J94" s="3" t="inlineStr"/>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M94" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N94" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O94" s="2" t="inlineStr"/>
-      <c r="P94" s="2" t="inlineStr"/>
-      <c r="Q94" s="2" t="inlineStr"/>
-      <c r="R94" s="2" t="inlineStr"/>
-      <c r="S94" s="2" t="inlineStr"/>
-      <c r="T94" s="2" t="inlineStr"/>
-      <c r="U94" s="2" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr"/>
-      <c r="W94" s="2" t="inlineStr"/>
-      <c r="X94" s="2" t="inlineStr"/>
-      <c r="Y94" s="2" t="inlineStr"/>
-      <c r="Z94" s="2" t="inlineStr"/>
-      <c r="AA94" s="2" t="inlineStr"/>
-      <c r="AB94" s="2" t="inlineStr"/>
-      <c r="AC94" s="2" t="inlineStr"/>
-      <c r="AD94" s="2" t="inlineStr"/>
-      <c r="AE94" s="2" t="inlineStr"/>
-      <c r="AF94" s="2" t="inlineStr"/>
-      <c r="AG94" s="2" t="inlineStr"/>
-      <c r="AH94" s="2" t="inlineStr"/>
-      <c r="AI94" s="2" t="inlineStr"/>
-      <c r="AJ94" s="2" t="inlineStr"/>
-      <c r="AK94" s="2" t="inlineStr"/>
-      <c r="AL94" s="2" t="inlineStr"/>
-      <c r="AM94" s="2" t="inlineStr"/>
-      <c r="AN94" s="2" t="inlineStr"/>
-      <c r="AO94" s="2" t="inlineStr"/>
-      <c r="AP94" s="2" t="inlineStr"/>
-      <c r="AQ94" s="2" t="inlineStr"/>
-      <c r="AR94" s="2" t="inlineStr"/>
-      <c r="AS94" s="2" t="inlineStr"/>
-      <c r="AT94" s="2" t="inlineStr"/>
-      <c r="AU94" s="2" t="inlineStr"/>
-      <c r="AV94" s="2" t="inlineStr"/>
-      <c r="AW94" s="2" t="inlineStr"/>
-      <c r="AX94" s="2" t="inlineStr"/>
-      <c r="AY94" s="2" t="inlineStr"/>
-      <c r="AZ94" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.4</t>
-        </is>
-      </c>
-      <c r="BA94" s="2" t="inlineStr">
-        <is>
-          <t>3317</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_13</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I95" s="3" t="inlineStr"/>
-      <c r="J95" s="3" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M95" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N95" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O95" s="2" t="inlineStr"/>
-      <c r="P95" s="2" t="inlineStr"/>
-      <c r="Q95" s="2" t="inlineStr"/>
-      <c r="R95" s="2" t="inlineStr"/>
-      <c r="S95" s="2" t="inlineStr"/>
-      <c r="T95" s="2" t="inlineStr"/>
-      <c r="U95" s="2" t="inlineStr"/>
-      <c r="V95" s="2" t="inlineStr"/>
-      <c r="W95" s="2" t="inlineStr"/>
-      <c r="X95" s="2" t="inlineStr"/>
-      <c r="Y95" s="2" t="inlineStr"/>
-      <c r="Z95" s="2" t="inlineStr"/>
-      <c r="AA95" s="2" t="inlineStr"/>
-      <c r="AB95" s="2" t="inlineStr"/>
-      <c r="AC95" s="2" t="inlineStr"/>
-      <c r="AD95" s="2" t="inlineStr"/>
-      <c r="AE95" s="2" t="inlineStr"/>
-      <c r="AF95" s="2" t="inlineStr"/>
-      <c r="AG95" s="2" t="inlineStr"/>
-      <c r="AH95" s="2" t="inlineStr"/>
-      <c r="AI95" s="2" t="inlineStr"/>
-      <c r="AJ95" s="2" t="inlineStr"/>
-      <c r="AK95" s="2" t="inlineStr"/>
-      <c r="AL95" s="2" t="inlineStr"/>
-      <c r="AM95" s="2" t="inlineStr"/>
-      <c r="AN95" s="2" t="inlineStr"/>
-      <c r="AO95" s="2" t="inlineStr"/>
-      <c r="AP95" s="2" t="inlineStr"/>
-      <c r="AQ95" s="2" t="inlineStr"/>
-      <c r="AR95" s="2" t="inlineStr"/>
-      <c r="AS95" s="2" t="inlineStr"/>
-      <c r="AT95" s="2" t="inlineStr"/>
-      <c r="AU95" s="2" t="inlineStr"/>
-      <c r="AV95" s="2" t="inlineStr"/>
-      <c r="AW95" s="2" t="inlineStr"/>
-      <c r="AX95" s="2" t="inlineStr"/>
-      <c r="AY95" s="2" t="inlineStr"/>
-      <c r="AZ95" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.5</t>
-        </is>
-      </c>
-      <c r="BA95" s="2" t="inlineStr">
-        <is>
-          <t>3318</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_14</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I96" s="3" t="inlineStr"/>
-      <c r="J96" s="3" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M96" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O96" s="2" t="inlineStr"/>
-      <c r="P96" s="2" t="inlineStr"/>
-      <c r="Q96" s="2" t="inlineStr"/>
-      <c r="R96" s="2" t="inlineStr"/>
-      <c r="S96" s="2" t="inlineStr"/>
-      <c r="T96" s="2" t="inlineStr"/>
-      <c r="U96" s="2" t="inlineStr"/>
-      <c r="V96" s="2" t="inlineStr"/>
-      <c r="W96" s="2" t="inlineStr"/>
-      <c r="X96" s="2" t="inlineStr"/>
-      <c r="Y96" s="2" t="inlineStr"/>
-      <c r="Z96" s="2" t="inlineStr"/>
-      <c r="AA96" s="2" t="inlineStr"/>
-      <c r="AB96" s="2" t="inlineStr"/>
-      <c r="AC96" s="2" t="inlineStr"/>
-      <c r="AD96" s="2" t="inlineStr"/>
-      <c r="AE96" s="2" t="inlineStr"/>
-      <c r="AF96" s="2" t="inlineStr"/>
-      <c r="AG96" s="2" t="inlineStr"/>
-      <c r="AH96" s="2" t="inlineStr"/>
-      <c r="AI96" s="2" t="inlineStr"/>
-      <c r="AJ96" s="2" t="inlineStr"/>
-      <c r="AK96" s="2" t="inlineStr"/>
-      <c r="AL96" s="2" t="inlineStr"/>
-      <c r="AM96" s="2" t="inlineStr"/>
-      <c r="AN96" s="2" t="inlineStr"/>
-      <c r="AO96" s="2" t="inlineStr"/>
-      <c r="AP96" s="2" t="inlineStr"/>
-      <c r="AQ96" s="2" t="inlineStr"/>
-      <c r="AR96" s="2" t="inlineStr"/>
-      <c r="AS96" s="2" t="inlineStr"/>
-      <c r="AT96" s="2" t="inlineStr"/>
-      <c r="AU96" s="2" t="inlineStr"/>
-      <c r="AV96" s="2" t="inlineStr"/>
-      <c r="AW96" s="2" t="inlineStr"/>
-      <c r="AX96" s="2" t="inlineStr"/>
-      <c r="AY96" s="2" t="inlineStr"/>
-      <c r="AZ96" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.6</t>
-        </is>
-      </c>
-      <c r="BA96" s="2" t="inlineStr">
-        <is>
-          <t>3319</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr"/>
-      <c r="E97" s="3" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>1_7_DO_15</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I97" s="3" t="inlineStr"/>
-      <c r="J97" s="3" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M97" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N97" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O97" s="2" t="inlineStr"/>
-      <c r="P97" s="2" t="inlineStr"/>
-      <c r="Q97" s="2" t="inlineStr"/>
-      <c r="R97" s="2" t="inlineStr"/>
-      <c r="S97" s="2" t="inlineStr"/>
-      <c r="T97" s="2" t="inlineStr"/>
-      <c r="U97" s="2" t="inlineStr"/>
-      <c r="V97" s="2" t="inlineStr"/>
-      <c r="W97" s="2" t="inlineStr"/>
-      <c r="X97" s="2" t="inlineStr"/>
-      <c r="Y97" s="2" t="inlineStr"/>
-      <c r="Z97" s="2" t="inlineStr"/>
-      <c r="AA97" s="2" t="inlineStr"/>
-      <c r="AB97" s="2" t="inlineStr"/>
-      <c r="AC97" s="2" t="inlineStr"/>
-      <c r="AD97" s="2" t="inlineStr"/>
-      <c r="AE97" s="2" t="inlineStr"/>
-      <c r="AF97" s="2" t="inlineStr"/>
-      <c r="AG97" s="2" t="inlineStr"/>
-      <c r="AH97" s="2" t="inlineStr"/>
-      <c r="AI97" s="2" t="inlineStr"/>
-      <c r="AJ97" s="2" t="inlineStr"/>
-      <c r="AK97" s="2" t="inlineStr"/>
-      <c r="AL97" s="2" t="inlineStr"/>
-      <c r="AM97" s="2" t="inlineStr"/>
-      <c r="AN97" s="2" t="inlineStr"/>
-      <c r="AO97" s="2" t="inlineStr"/>
-      <c r="AP97" s="2" t="inlineStr"/>
-      <c r="AQ97" s="2" t="inlineStr"/>
-      <c r="AR97" s="2" t="inlineStr"/>
-      <c r="AS97" s="2" t="inlineStr"/>
-      <c r="AT97" s="2" t="inlineStr"/>
-      <c r="AU97" s="2" t="inlineStr"/>
-      <c r="AV97" s="2" t="inlineStr"/>
-      <c r="AW97" s="2" t="inlineStr"/>
-      <c r="AX97" s="2" t="inlineStr"/>
-      <c r="AY97" s="2" t="inlineStr"/>
-      <c r="AZ97" s="2" t="inlineStr">
-        <is>
-          <t>%MX39.7</t>
-        </is>
-      </c>
-      <c r="BA97" s="2" t="inlineStr">
-        <is>
-          <t>3320</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr"/>
-      <c r="E98" s="3" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_0</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I98" s="3" t="inlineStr"/>
-      <c r="J98" s="3" t="inlineStr"/>
-      <c r="K98" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L98" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M98" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N98" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O98" s="2" t="inlineStr"/>
-      <c r="P98" s="2" t="inlineStr"/>
-      <c r="Q98" s="2" t="inlineStr"/>
-      <c r="R98" s="2" t="inlineStr"/>
-      <c r="S98" s="2" t="inlineStr"/>
-      <c r="T98" s="2" t="inlineStr"/>
-      <c r="U98" s="2" t="inlineStr"/>
-      <c r="V98" s="2" t="inlineStr"/>
-      <c r="W98" s="2" t="inlineStr"/>
-      <c r="X98" s="2" t="inlineStr"/>
-      <c r="Y98" s="2" t="inlineStr"/>
-      <c r="Z98" s="2" t="inlineStr"/>
-      <c r="AA98" s="2" t="inlineStr"/>
-      <c r="AB98" s="2" t="inlineStr"/>
-      <c r="AC98" s="2" t="inlineStr"/>
-      <c r="AD98" s="2" t="inlineStr"/>
-      <c r="AE98" s="2" t="inlineStr"/>
-      <c r="AF98" s="2" t="inlineStr"/>
-      <c r="AG98" s="2" t="inlineStr"/>
-      <c r="AH98" s="2" t="inlineStr"/>
-      <c r="AI98" s="2" t="inlineStr"/>
-      <c r="AJ98" s="2" t="inlineStr"/>
-      <c r="AK98" s="2" t="inlineStr"/>
-      <c r="AL98" s="2" t="inlineStr"/>
-      <c r="AM98" s="2" t="inlineStr"/>
-      <c r="AN98" s="2" t="inlineStr"/>
-      <c r="AO98" s="2" t="inlineStr"/>
-      <c r="AP98" s="2" t="inlineStr"/>
-      <c r="AQ98" s="2" t="inlineStr"/>
-      <c r="AR98" s="2" t="inlineStr"/>
-      <c r="AS98" s="2" t="inlineStr"/>
-      <c r="AT98" s="2" t="inlineStr"/>
-      <c r="AU98" s="2" t="inlineStr"/>
-      <c r="AV98" s="2" t="inlineStr"/>
-      <c r="AW98" s="2" t="inlineStr"/>
-      <c r="AX98" s="2" t="inlineStr"/>
-      <c r="AY98" s="2" t="inlineStr"/>
-      <c r="AZ98" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.0</t>
-        </is>
-      </c>
-      <c r="BA98" s="2" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr"/>
-      <c r="E99" s="3" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_1</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I99" s="3" t="inlineStr"/>
-      <c r="J99" s="3" t="inlineStr"/>
-      <c r="K99" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M99" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N99" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O99" s="2" t="inlineStr"/>
-      <c r="P99" s="2" t="inlineStr"/>
-      <c r="Q99" s="2" t="inlineStr"/>
-      <c r="R99" s="2" t="inlineStr"/>
-      <c r="S99" s="2" t="inlineStr"/>
-      <c r="T99" s="2" t="inlineStr"/>
-      <c r="U99" s="2" t="inlineStr"/>
-      <c r="V99" s="2" t="inlineStr"/>
-      <c r="W99" s="2" t="inlineStr"/>
-      <c r="X99" s="2" t="inlineStr"/>
-      <c r="Y99" s="2" t="inlineStr"/>
-      <c r="Z99" s="2" t="inlineStr"/>
-      <c r="AA99" s="2" t="inlineStr"/>
-      <c r="AB99" s="2" t="inlineStr"/>
-      <c r="AC99" s="2" t="inlineStr"/>
-      <c r="AD99" s="2" t="inlineStr"/>
-      <c r="AE99" s="2" t="inlineStr"/>
-      <c r="AF99" s="2" t="inlineStr"/>
-      <c r="AG99" s="2" t="inlineStr"/>
-      <c r="AH99" s="2" t="inlineStr"/>
-      <c r="AI99" s="2" t="inlineStr"/>
-      <c r="AJ99" s="2" t="inlineStr"/>
-      <c r="AK99" s="2" t="inlineStr"/>
-      <c r="AL99" s="2" t="inlineStr"/>
-      <c r="AM99" s="2" t="inlineStr"/>
-      <c r="AN99" s="2" t="inlineStr"/>
-      <c r="AO99" s="2" t="inlineStr"/>
-      <c r="AP99" s="2" t="inlineStr"/>
-      <c r="AQ99" s="2" t="inlineStr"/>
-      <c r="AR99" s="2" t="inlineStr"/>
-      <c r="AS99" s="2" t="inlineStr"/>
-      <c r="AT99" s="2" t="inlineStr"/>
-      <c r="AU99" s="2" t="inlineStr"/>
-      <c r="AV99" s="2" t="inlineStr"/>
-      <c r="AW99" s="2" t="inlineStr"/>
-      <c r="AX99" s="2" t="inlineStr"/>
-      <c r="AY99" s="2" t="inlineStr"/>
-      <c r="AZ99" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.1</t>
-        </is>
-      </c>
-      <c r="BA99" s="2" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr"/>
-      <c r="E100" s="3" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_2</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I100" s="3" t="inlineStr"/>
-      <c r="J100" s="3" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M100" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N100" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O100" s="2" t="inlineStr"/>
-      <c r="P100" s="2" t="inlineStr"/>
-      <c r="Q100" s="2" t="inlineStr"/>
-      <c r="R100" s="2" t="inlineStr"/>
-      <c r="S100" s="2" t="inlineStr"/>
-      <c r="T100" s="2" t="inlineStr"/>
-      <c r="U100" s="2" t="inlineStr"/>
-      <c r="V100" s="2" t="inlineStr"/>
-      <c r="W100" s="2" t="inlineStr"/>
-      <c r="X100" s="2" t="inlineStr"/>
-      <c r="Y100" s="2" t="inlineStr"/>
-      <c r="Z100" s="2" t="inlineStr"/>
-      <c r="AA100" s="2" t="inlineStr"/>
-      <c r="AB100" s="2" t="inlineStr"/>
-      <c r="AC100" s="2" t="inlineStr"/>
-      <c r="AD100" s="2" t="inlineStr"/>
-      <c r="AE100" s="2" t="inlineStr"/>
-      <c r="AF100" s="2" t="inlineStr"/>
-      <c r="AG100" s="2" t="inlineStr"/>
-      <c r="AH100" s="2" t="inlineStr"/>
-      <c r="AI100" s="2" t="inlineStr"/>
-      <c r="AJ100" s="2" t="inlineStr"/>
-      <c r="AK100" s="2" t="inlineStr"/>
-      <c r="AL100" s="2" t="inlineStr"/>
-      <c r="AM100" s="2" t="inlineStr"/>
-      <c r="AN100" s="2" t="inlineStr"/>
-      <c r="AO100" s="2" t="inlineStr"/>
-      <c r="AP100" s="2" t="inlineStr"/>
-      <c r="AQ100" s="2" t="inlineStr"/>
-      <c r="AR100" s="2" t="inlineStr"/>
-      <c r="AS100" s="2" t="inlineStr"/>
-      <c r="AT100" s="2" t="inlineStr"/>
-      <c r="AU100" s="2" t="inlineStr"/>
-      <c r="AV100" s="2" t="inlineStr"/>
-      <c r="AW100" s="2" t="inlineStr"/>
-      <c r="AX100" s="2" t="inlineStr"/>
-      <c r="AY100" s="2" t="inlineStr"/>
-      <c r="AZ100" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.2</t>
-        </is>
-      </c>
-      <c r="BA100" s="2" t="inlineStr">
-        <is>
-          <t>3323</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_3</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I101" s="3" t="inlineStr"/>
-      <c r="J101" s="3" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M101" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N101" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr"/>
-      <c r="Q101" s="2" t="inlineStr"/>
-      <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="inlineStr"/>
-      <c r="T101" s="2" t="inlineStr"/>
-      <c r="U101" s="2" t="inlineStr"/>
-      <c r="V101" s="2" t="inlineStr"/>
-      <c r="W101" s="2" t="inlineStr"/>
-      <c r="X101" s="2" t="inlineStr"/>
-      <c r="Y101" s="2" t="inlineStr"/>
-      <c r="Z101" s="2" t="inlineStr"/>
-      <c r="AA101" s="2" t="inlineStr"/>
-      <c r="AB101" s="2" t="inlineStr"/>
-      <c r="AC101" s="2" t="inlineStr"/>
-      <c r="AD101" s="2" t="inlineStr"/>
-      <c r="AE101" s="2" t="inlineStr"/>
-      <c r="AF101" s="2" t="inlineStr"/>
-      <c r="AG101" s="2" t="inlineStr"/>
-      <c r="AH101" s="2" t="inlineStr"/>
-      <c r="AI101" s="2" t="inlineStr"/>
-      <c r="AJ101" s="2" t="inlineStr"/>
-      <c r="AK101" s="2" t="inlineStr"/>
-      <c r="AL101" s="2" t="inlineStr"/>
-      <c r="AM101" s="2" t="inlineStr"/>
-      <c r="AN101" s="2" t="inlineStr"/>
-      <c r="AO101" s="2" t="inlineStr"/>
-      <c r="AP101" s="2" t="inlineStr"/>
-      <c r="AQ101" s="2" t="inlineStr"/>
-      <c r="AR101" s="2" t="inlineStr"/>
-      <c r="AS101" s="2" t="inlineStr"/>
-      <c r="AT101" s="2" t="inlineStr"/>
-      <c r="AU101" s="2" t="inlineStr"/>
-      <c r="AV101" s="2" t="inlineStr"/>
-      <c r="AW101" s="2" t="inlineStr"/>
-      <c r="AX101" s="2" t="inlineStr"/>
-      <c r="AY101" s="2" t="inlineStr"/>
-      <c r="AZ101" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.3</t>
-        </is>
-      </c>
-      <c r="BA101" s="2" t="inlineStr">
-        <is>
-          <t>3324</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_4</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I102" s="3" t="inlineStr"/>
-      <c r="J102" s="3" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M102" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N102" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O102" s="2" t="inlineStr"/>
-      <c r="P102" s="2" t="inlineStr"/>
-      <c r="Q102" s="2" t="inlineStr"/>
-      <c r="R102" s="2" t="inlineStr"/>
-      <c r="S102" s="2" t="inlineStr"/>
-      <c r="T102" s="2" t="inlineStr"/>
-      <c r="U102" s="2" t="inlineStr"/>
-      <c r="V102" s="2" t="inlineStr"/>
-      <c r="W102" s="2" t="inlineStr"/>
-      <c r="X102" s="2" t="inlineStr"/>
-      <c r="Y102" s="2" t="inlineStr"/>
-      <c r="Z102" s="2" t="inlineStr"/>
-      <c r="AA102" s="2" t="inlineStr"/>
-      <c r="AB102" s="2" t="inlineStr"/>
-      <c r="AC102" s="2" t="inlineStr"/>
-      <c r="AD102" s="2" t="inlineStr"/>
-      <c r="AE102" s="2" t="inlineStr"/>
-      <c r="AF102" s="2" t="inlineStr"/>
-      <c r="AG102" s="2" t="inlineStr"/>
-      <c r="AH102" s="2" t="inlineStr"/>
-      <c r="AI102" s="2" t="inlineStr"/>
-      <c r="AJ102" s="2" t="inlineStr"/>
-      <c r="AK102" s="2" t="inlineStr"/>
-      <c r="AL102" s="2" t="inlineStr"/>
-      <c r="AM102" s="2" t="inlineStr"/>
-      <c r="AN102" s="2" t="inlineStr"/>
-      <c r="AO102" s="2" t="inlineStr"/>
-      <c r="AP102" s="2" t="inlineStr"/>
-      <c r="AQ102" s="2" t="inlineStr"/>
-      <c r="AR102" s="2" t="inlineStr"/>
-      <c r="AS102" s="2" t="inlineStr"/>
-      <c r="AT102" s="2" t="inlineStr"/>
-      <c r="AU102" s="2" t="inlineStr"/>
-      <c r="AV102" s="2" t="inlineStr"/>
-      <c r="AW102" s="2" t="inlineStr"/>
-      <c r="AX102" s="2" t="inlineStr"/>
-      <c r="AY102" s="2" t="inlineStr"/>
-      <c r="AZ102" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.4</t>
-        </is>
-      </c>
-      <c r="BA102" s="2" t="inlineStr">
-        <is>
-          <t>3325</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_5</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I103" s="3" t="inlineStr"/>
-      <c r="J103" s="3" t="inlineStr"/>
-      <c r="K103" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M103" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N103" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O103" s="2" t="inlineStr"/>
-      <c r="P103" s="2" t="inlineStr"/>
-      <c r="Q103" s="2" t="inlineStr"/>
-      <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr"/>
-      <c r="T103" s="2" t="inlineStr"/>
-      <c r="U103" s="2" t="inlineStr"/>
-      <c r="V103" s="2" t="inlineStr"/>
-      <c r="W103" s="2" t="inlineStr"/>
-      <c r="X103" s="2" t="inlineStr"/>
-      <c r="Y103" s="2" t="inlineStr"/>
-      <c r="Z103" s="2" t="inlineStr"/>
-      <c r="AA103" s="2" t="inlineStr"/>
-      <c r="AB103" s="2" t="inlineStr"/>
-      <c r="AC103" s="2" t="inlineStr"/>
-      <c r="AD103" s="2" t="inlineStr"/>
-      <c r="AE103" s="2" t="inlineStr"/>
-      <c r="AF103" s="2" t="inlineStr"/>
-      <c r="AG103" s="2" t="inlineStr"/>
-      <c r="AH103" s="2" t="inlineStr"/>
-      <c r="AI103" s="2" t="inlineStr"/>
-      <c r="AJ103" s="2" t="inlineStr"/>
-      <c r="AK103" s="2" t="inlineStr"/>
-      <c r="AL103" s="2" t="inlineStr"/>
-      <c r="AM103" s="2" t="inlineStr"/>
-      <c r="AN103" s="2" t="inlineStr"/>
-      <c r="AO103" s="2" t="inlineStr"/>
-      <c r="AP103" s="2" t="inlineStr"/>
-      <c r="AQ103" s="2" t="inlineStr"/>
-      <c r="AR103" s="2" t="inlineStr"/>
-      <c r="AS103" s="2" t="inlineStr"/>
-      <c r="AT103" s="2" t="inlineStr"/>
-      <c r="AU103" s="2" t="inlineStr"/>
-      <c r="AV103" s="2" t="inlineStr"/>
-      <c r="AW103" s="2" t="inlineStr"/>
-      <c r="AX103" s="2" t="inlineStr"/>
-      <c r="AY103" s="2" t="inlineStr"/>
-      <c r="AZ103" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.5</t>
-        </is>
-      </c>
-      <c r="BA103" s="2" t="inlineStr">
-        <is>
-          <t>3326</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_6</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I104" s="3" t="inlineStr"/>
-      <c r="J104" s="3" t="inlineStr"/>
-      <c r="K104" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M104" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N104" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O104" s="2" t="inlineStr"/>
-      <c r="P104" s="2" t="inlineStr"/>
-      <c r="Q104" s="2" t="inlineStr"/>
-      <c r="R104" s="2" t="inlineStr"/>
-      <c r="S104" s="2" t="inlineStr"/>
-      <c r="T104" s="2" t="inlineStr"/>
-      <c r="U104" s="2" t="inlineStr"/>
-      <c r="V104" s="2" t="inlineStr"/>
-      <c r="W104" s="2" t="inlineStr"/>
-      <c r="X104" s="2" t="inlineStr"/>
-      <c r="Y104" s="2" t="inlineStr"/>
-      <c r="Z104" s="2" t="inlineStr"/>
-      <c r="AA104" s="2" t="inlineStr"/>
-      <c r="AB104" s="2" t="inlineStr"/>
-      <c r="AC104" s="2" t="inlineStr"/>
-      <c r="AD104" s="2" t="inlineStr"/>
-      <c r="AE104" s="2" t="inlineStr"/>
-      <c r="AF104" s="2" t="inlineStr"/>
-      <c r="AG104" s="2" t="inlineStr"/>
-      <c r="AH104" s="2" t="inlineStr"/>
-      <c r="AI104" s="2" t="inlineStr"/>
-      <c r="AJ104" s="2" t="inlineStr"/>
-      <c r="AK104" s="2" t="inlineStr"/>
-      <c r="AL104" s="2" t="inlineStr"/>
-      <c r="AM104" s="2" t="inlineStr"/>
-      <c r="AN104" s="2" t="inlineStr"/>
-      <c r="AO104" s="2" t="inlineStr"/>
-      <c r="AP104" s="2" t="inlineStr"/>
-      <c r="AQ104" s="2" t="inlineStr"/>
-      <c r="AR104" s="2" t="inlineStr"/>
-      <c r="AS104" s="2" t="inlineStr"/>
-      <c r="AT104" s="2" t="inlineStr"/>
-      <c r="AU104" s="2" t="inlineStr"/>
-      <c r="AV104" s="2" t="inlineStr"/>
-      <c r="AW104" s="2" t="inlineStr"/>
-      <c r="AX104" s="2" t="inlineStr"/>
-      <c r="AY104" s="2" t="inlineStr"/>
-      <c r="AZ104" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.6</t>
-        </is>
-      </c>
-      <c r="BA104" s="2" t="inlineStr">
-        <is>
-          <t>3327</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr"/>
-      <c r="E105" s="3" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_7</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I105" s="3" t="inlineStr"/>
-      <c r="J105" s="3" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M105" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N105" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O105" s="2" t="inlineStr"/>
-      <c r="P105" s="2" t="inlineStr"/>
-      <c r="Q105" s="2" t="inlineStr"/>
-      <c r="R105" s="2" t="inlineStr"/>
-      <c r="S105" s="2" t="inlineStr"/>
-      <c r="T105" s="2" t="inlineStr"/>
-      <c r="U105" s="2" t="inlineStr"/>
-      <c r="V105" s="2" t="inlineStr"/>
-      <c r="W105" s="2" t="inlineStr"/>
-      <c r="X105" s="2" t="inlineStr"/>
-      <c r="Y105" s="2" t="inlineStr"/>
-      <c r="Z105" s="2" t="inlineStr"/>
-      <c r="AA105" s="2" t="inlineStr"/>
-      <c r="AB105" s="2" t="inlineStr"/>
-      <c r="AC105" s="2" t="inlineStr"/>
-      <c r="AD105" s="2" t="inlineStr"/>
-      <c r="AE105" s="2" t="inlineStr"/>
-      <c r="AF105" s="2" t="inlineStr"/>
-      <c r="AG105" s="2" t="inlineStr"/>
-      <c r="AH105" s="2" t="inlineStr"/>
-      <c r="AI105" s="2" t="inlineStr"/>
-      <c r="AJ105" s="2" t="inlineStr"/>
-      <c r="AK105" s="2" t="inlineStr"/>
-      <c r="AL105" s="2" t="inlineStr"/>
-      <c r="AM105" s="2" t="inlineStr"/>
-      <c r="AN105" s="2" t="inlineStr"/>
-      <c r="AO105" s="2" t="inlineStr"/>
-      <c r="AP105" s="2" t="inlineStr"/>
-      <c r="AQ105" s="2" t="inlineStr"/>
-      <c r="AR105" s="2" t="inlineStr"/>
-      <c r="AS105" s="2" t="inlineStr"/>
-      <c r="AT105" s="2" t="inlineStr"/>
-      <c r="AU105" s="2" t="inlineStr"/>
-      <c r="AV105" s="2" t="inlineStr"/>
-      <c r="AW105" s="2" t="inlineStr"/>
-      <c r="AX105" s="2" t="inlineStr"/>
-      <c r="AY105" s="2" t="inlineStr"/>
-      <c r="AZ105" s="2" t="inlineStr">
-        <is>
-          <t>%MX40.7</t>
-        </is>
-      </c>
-      <c r="BA105" s="2" t="inlineStr">
-        <is>
-          <t>3328</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_8</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I106" s="3" t="inlineStr"/>
-      <c r="J106" s="3" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M106" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N106" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O106" s="2" t="inlineStr"/>
-      <c r="P106" s="2" t="inlineStr"/>
-      <c r="Q106" s="2" t="inlineStr"/>
-      <c r="R106" s="2" t="inlineStr"/>
-      <c r="S106" s="2" t="inlineStr"/>
-      <c r="T106" s="2" t="inlineStr"/>
-      <c r="U106" s="2" t="inlineStr"/>
-      <c r="V106" s="2" t="inlineStr"/>
-      <c r="W106" s="2" t="inlineStr"/>
-      <c r="X106" s="2" t="inlineStr"/>
-      <c r="Y106" s="2" t="inlineStr"/>
-      <c r="Z106" s="2" t="inlineStr"/>
-      <c r="AA106" s="2" t="inlineStr"/>
-      <c r="AB106" s="2" t="inlineStr"/>
-      <c r="AC106" s="2" t="inlineStr"/>
-      <c r="AD106" s="2" t="inlineStr"/>
-      <c r="AE106" s="2" t="inlineStr"/>
-      <c r="AF106" s="2" t="inlineStr"/>
-      <c r="AG106" s="2" t="inlineStr"/>
-      <c r="AH106" s="2" t="inlineStr"/>
-      <c r="AI106" s="2" t="inlineStr"/>
-      <c r="AJ106" s="2" t="inlineStr"/>
-      <c r="AK106" s="2" t="inlineStr"/>
-      <c r="AL106" s="2" t="inlineStr"/>
-      <c r="AM106" s="2" t="inlineStr"/>
-      <c r="AN106" s="2" t="inlineStr"/>
-      <c r="AO106" s="2" t="inlineStr"/>
-      <c r="AP106" s="2" t="inlineStr"/>
-      <c r="AQ106" s="2" t="inlineStr"/>
-      <c r="AR106" s="2" t="inlineStr"/>
-      <c r="AS106" s="2" t="inlineStr"/>
-      <c r="AT106" s="2" t="inlineStr"/>
-      <c r="AU106" s="2" t="inlineStr"/>
-      <c r="AV106" s="2" t="inlineStr"/>
-      <c r="AW106" s="2" t="inlineStr"/>
-      <c r="AX106" s="2" t="inlineStr"/>
-      <c r="AY106" s="2" t="inlineStr"/>
-      <c r="AZ106" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.0</t>
-        </is>
-      </c>
-      <c r="BA106" s="2" t="inlineStr">
-        <is>
-          <t>3329</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr"/>
-      <c r="E107" s="3" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_9</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I107" s="3" t="inlineStr"/>
-      <c r="J107" s="3" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M107" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N107" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O107" s="2" t="inlineStr"/>
-      <c r="P107" s="2" t="inlineStr"/>
-      <c r="Q107" s="2" t="inlineStr"/>
-      <c r="R107" s="2" t="inlineStr"/>
-      <c r="S107" s="2" t="inlineStr"/>
-      <c r="T107" s="2" t="inlineStr"/>
-      <c r="U107" s="2" t="inlineStr"/>
-      <c r="V107" s="2" t="inlineStr"/>
-      <c r="W107" s="2" t="inlineStr"/>
-      <c r="X107" s="2" t="inlineStr"/>
-      <c r="Y107" s="2" t="inlineStr"/>
-      <c r="Z107" s="2" t="inlineStr"/>
-      <c r="AA107" s="2" t="inlineStr"/>
-      <c r="AB107" s="2" t="inlineStr"/>
-      <c r="AC107" s="2" t="inlineStr"/>
-      <c r="AD107" s="2" t="inlineStr"/>
-      <c r="AE107" s="2" t="inlineStr"/>
-      <c r="AF107" s="2" t="inlineStr"/>
-      <c r="AG107" s="2" t="inlineStr"/>
-      <c r="AH107" s="2" t="inlineStr"/>
-      <c r="AI107" s="2" t="inlineStr"/>
-      <c r="AJ107" s="2" t="inlineStr"/>
-      <c r="AK107" s="2" t="inlineStr"/>
-      <c r="AL107" s="2" t="inlineStr"/>
-      <c r="AM107" s="2" t="inlineStr"/>
-      <c r="AN107" s="2" t="inlineStr"/>
-      <c r="AO107" s="2" t="inlineStr"/>
-      <c r="AP107" s="2" t="inlineStr"/>
-      <c r="AQ107" s="2" t="inlineStr"/>
-      <c r="AR107" s="2" t="inlineStr"/>
-      <c r="AS107" s="2" t="inlineStr"/>
-      <c r="AT107" s="2" t="inlineStr"/>
-      <c r="AU107" s="2" t="inlineStr"/>
-      <c r="AV107" s="2" t="inlineStr"/>
-      <c r="AW107" s="2" t="inlineStr"/>
-      <c r="AX107" s="2" t="inlineStr"/>
-      <c r="AY107" s="2" t="inlineStr"/>
-      <c r="AZ107" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.1</t>
-        </is>
-      </c>
-      <c r="BA107" s="2" t="inlineStr">
-        <is>
-          <t>3330</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr"/>
-      <c r="E108" s="3" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_10</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I108" s="3" t="inlineStr"/>
-      <c r="J108" s="3" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M108" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N108" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O108" s="2" t="inlineStr"/>
-      <c r="P108" s="2" t="inlineStr"/>
-      <c r="Q108" s="2" t="inlineStr"/>
-      <c r="R108" s="2" t="inlineStr"/>
-      <c r="S108" s="2" t="inlineStr"/>
-      <c r="T108" s="2" t="inlineStr"/>
-      <c r="U108" s="2" t="inlineStr"/>
-      <c r="V108" s="2" t="inlineStr"/>
-      <c r="W108" s="2" t="inlineStr"/>
-      <c r="X108" s="2" t="inlineStr"/>
-      <c r="Y108" s="2" t="inlineStr"/>
-      <c r="Z108" s="2" t="inlineStr"/>
-      <c r="AA108" s="2" t="inlineStr"/>
-      <c r="AB108" s="2" t="inlineStr"/>
-      <c r="AC108" s="2" t="inlineStr"/>
-      <c r="AD108" s="2" t="inlineStr"/>
-      <c r="AE108" s="2" t="inlineStr"/>
-      <c r="AF108" s="2" t="inlineStr"/>
-      <c r="AG108" s="2" t="inlineStr"/>
-      <c r="AH108" s="2" t="inlineStr"/>
-      <c r="AI108" s="2" t="inlineStr"/>
-      <c r="AJ108" s="2" t="inlineStr"/>
-      <c r="AK108" s="2" t="inlineStr"/>
-      <c r="AL108" s="2" t="inlineStr"/>
-      <c r="AM108" s="2" t="inlineStr"/>
-      <c r="AN108" s="2" t="inlineStr"/>
-      <c r="AO108" s="2" t="inlineStr"/>
-      <c r="AP108" s="2" t="inlineStr"/>
-      <c r="AQ108" s="2" t="inlineStr"/>
-      <c r="AR108" s="2" t="inlineStr"/>
-      <c r="AS108" s="2" t="inlineStr"/>
-      <c r="AT108" s="2" t="inlineStr"/>
-      <c r="AU108" s="2" t="inlineStr"/>
-      <c r="AV108" s="2" t="inlineStr"/>
-      <c r="AW108" s="2" t="inlineStr"/>
-      <c r="AX108" s="2" t="inlineStr"/>
-      <c r="AY108" s="2" t="inlineStr"/>
-      <c r="AZ108" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.2</t>
-        </is>
-      </c>
-      <c r="BA108" s="2" t="inlineStr">
-        <is>
-          <t>3331</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr"/>
-      <c r="E109" s="3" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_11</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I109" s="3" t="inlineStr"/>
-      <c r="J109" s="3" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M109" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O109" s="2" t="inlineStr"/>
-      <c r="P109" s="2" t="inlineStr"/>
-      <c r="Q109" s="2" t="inlineStr"/>
-      <c r="R109" s="2" t="inlineStr"/>
-      <c r="S109" s="2" t="inlineStr"/>
-      <c r="T109" s="2" t="inlineStr"/>
-      <c r="U109" s="2" t="inlineStr"/>
-      <c r="V109" s="2" t="inlineStr"/>
-      <c r="W109" s="2" t="inlineStr"/>
-      <c r="X109" s="2" t="inlineStr"/>
-      <c r="Y109" s="2" t="inlineStr"/>
-      <c r="Z109" s="2" t="inlineStr"/>
-      <c r="AA109" s="2" t="inlineStr"/>
-      <c r="AB109" s="2" t="inlineStr"/>
-      <c r="AC109" s="2" t="inlineStr"/>
-      <c r="AD109" s="2" t="inlineStr"/>
-      <c r="AE109" s="2" t="inlineStr"/>
-      <c r="AF109" s="2" t="inlineStr"/>
-      <c r="AG109" s="2" t="inlineStr"/>
-      <c r="AH109" s="2" t="inlineStr"/>
-      <c r="AI109" s="2" t="inlineStr"/>
-      <c r="AJ109" s="2" t="inlineStr"/>
-      <c r="AK109" s="2" t="inlineStr"/>
-      <c r="AL109" s="2" t="inlineStr"/>
-      <c r="AM109" s="2" t="inlineStr"/>
-      <c r="AN109" s="2" t="inlineStr"/>
-      <c r="AO109" s="2" t="inlineStr"/>
-      <c r="AP109" s="2" t="inlineStr"/>
-      <c r="AQ109" s="2" t="inlineStr"/>
-      <c r="AR109" s="2" t="inlineStr"/>
-      <c r="AS109" s="2" t="inlineStr"/>
-      <c r="AT109" s="2" t="inlineStr"/>
-      <c r="AU109" s="2" t="inlineStr"/>
-      <c r="AV109" s="2" t="inlineStr"/>
-      <c r="AW109" s="2" t="inlineStr"/>
-      <c r="AX109" s="2" t="inlineStr"/>
-      <c r="AY109" s="2" t="inlineStr"/>
-      <c r="AZ109" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.3</t>
-        </is>
-      </c>
-      <c r="BA109" s="2" t="inlineStr">
-        <is>
-          <t>3332</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr"/>
-      <c r="E110" s="3" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_12</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I110" s="3" t="inlineStr"/>
-      <c r="J110" s="3" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N110" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O110" s="2" t="inlineStr"/>
-      <c r="P110" s="2" t="inlineStr"/>
-      <c r="Q110" s="2" t="inlineStr"/>
-      <c r="R110" s="2" t="inlineStr"/>
-      <c r="S110" s="2" t="inlineStr"/>
-      <c r="T110" s="2" t="inlineStr"/>
-      <c r="U110" s="2" t="inlineStr"/>
-      <c r="V110" s="2" t="inlineStr"/>
-      <c r="W110" s="2" t="inlineStr"/>
-      <c r="X110" s="2" t="inlineStr"/>
-      <c r="Y110" s="2" t="inlineStr"/>
-      <c r="Z110" s="2" t="inlineStr"/>
-      <c r="AA110" s="2" t="inlineStr"/>
-      <c r="AB110" s="2" t="inlineStr"/>
-      <c r="AC110" s="2" t="inlineStr"/>
-      <c r="AD110" s="2" t="inlineStr"/>
-      <c r="AE110" s="2" t="inlineStr"/>
-      <c r="AF110" s="2" t="inlineStr"/>
-      <c r="AG110" s="2" t="inlineStr"/>
-      <c r="AH110" s="2" t="inlineStr"/>
-      <c r="AI110" s="2" t="inlineStr"/>
-      <c r="AJ110" s="2" t="inlineStr"/>
-      <c r="AK110" s="2" t="inlineStr"/>
-      <c r="AL110" s="2" t="inlineStr"/>
-      <c r="AM110" s="2" t="inlineStr"/>
-      <c r="AN110" s="2" t="inlineStr"/>
-      <c r="AO110" s="2" t="inlineStr"/>
-      <c r="AP110" s="2" t="inlineStr"/>
-      <c r="AQ110" s="2" t="inlineStr"/>
-      <c r="AR110" s="2" t="inlineStr"/>
-      <c r="AS110" s="2" t="inlineStr"/>
-      <c r="AT110" s="2" t="inlineStr"/>
-      <c r="AU110" s="2" t="inlineStr"/>
-      <c r="AV110" s="2" t="inlineStr"/>
-      <c r="AW110" s="2" t="inlineStr"/>
-      <c r="AX110" s="2" t="inlineStr"/>
-      <c r="AY110" s="2" t="inlineStr"/>
-      <c r="AZ110" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.4</t>
-        </is>
-      </c>
-      <c r="BA110" s="2" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr"/>
-      <c r="E111" s="3" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_13</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I111" s="3" t="inlineStr"/>
-      <c r="J111" s="3" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M111" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N111" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O111" s="2" t="inlineStr"/>
-      <c r="P111" s="2" t="inlineStr"/>
-      <c r="Q111" s="2" t="inlineStr"/>
-      <c r="R111" s="2" t="inlineStr"/>
-      <c r="S111" s="2" t="inlineStr"/>
-      <c r="T111" s="2" t="inlineStr"/>
-      <c r="U111" s="2" t="inlineStr"/>
-      <c r="V111" s="2" t="inlineStr"/>
-      <c r="W111" s="2" t="inlineStr"/>
-      <c r="X111" s="2" t="inlineStr"/>
-      <c r="Y111" s="2" t="inlineStr"/>
-      <c r="Z111" s="2" t="inlineStr"/>
-      <c r="AA111" s="2" t="inlineStr"/>
-      <c r="AB111" s="2" t="inlineStr"/>
-      <c r="AC111" s="2" t="inlineStr"/>
-      <c r="AD111" s="2" t="inlineStr"/>
-      <c r="AE111" s="2" t="inlineStr"/>
-      <c r="AF111" s="2" t="inlineStr"/>
-      <c r="AG111" s="2" t="inlineStr"/>
-      <c r="AH111" s="2" t="inlineStr"/>
-      <c r="AI111" s="2" t="inlineStr"/>
-      <c r="AJ111" s="2" t="inlineStr"/>
-      <c r="AK111" s="2" t="inlineStr"/>
-      <c r="AL111" s="2" t="inlineStr"/>
-      <c r="AM111" s="2" t="inlineStr"/>
-      <c r="AN111" s="2" t="inlineStr"/>
-      <c r="AO111" s="2" t="inlineStr"/>
-      <c r="AP111" s="2" t="inlineStr"/>
-      <c r="AQ111" s="2" t="inlineStr"/>
-      <c r="AR111" s="2" t="inlineStr"/>
-      <c r="AS111" s="2" t="inlineStr"/>
-      <c r="AT111" s="2" t="inlineStr"/>
-      <c r="AU111" s="2" t="inlineStr"/>
-      <c r="AV111" s="2" t="inlineStr"/>
-      <c r="AW111" s="2" t="inlineStr"/>
-      <c r="AX111" s="2" t="inlineStr"/>
-      <c r="AY111" s="2" t="inlineStr"/>
-      <c r="AZ111" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.5</t>
-        </is>
-      </c>
-      <c r="BA111" s="2" t="inlineStr">
-        <is>
-          <t>3334</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_14</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I112" s="3" t="inlineStr"/>
-      <c r="J112" s="3" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M112" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N112" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O112" s="2" t="inlineStr"/>
-      <c r="P112" s="2" t="inlineStr"/>
-      <c r="Q112" s="2" t="inlineStr"/>
-      <c r="R112" s="2" t="inlineStr"/>
-      <c r="S112" s="2" t="inlineStr"/>
-      <c r="T112" s="2" t="inlineStr"/>
-      <c r="U112" s="2" t="inlineStr"/>
-      <c r="V112" s="2" t="inlineStr"/>
-      <c r="W112" s="2" t="inlineStr"/>
-      <c r="X112" s="2" t="inlineStr"/>
-      <c r="Y112" s="2" t="inlineStr"/>
-      <c r="Z112" s="2" t="inlineStr"/>
-      <c r="AA112" s="2" t="inlineStr"/>
-      <c r="AB112" s="2" t="inlineStr"/>
-      <c r="AC112" s="2" t="inlineStr"/>
-      <c r="AD112" s="2" t="inlineStr"/>
-      <c r="AE112" s="2" t="inlineStr"/>
-      <c r="AF112" s="2" t="inlineStr"/>
-      <c r="AG112" s="2" t="inlineStr"/>
-      <c r="AH112" s="2" t="inlineStr"/>
-      <c r="AI112" s="2" t="inlineStr"/>
-      <c r="AJ112" s="2" t="inlineStr"/>
-      <c r="AK112" s="2" t="inlineStr"/>
-      <c r="AL112" s="2" t="inlineStr"/>
-      <c r="AM112" s="2" t="inlineStr"/>
-      <c r="AN112" s="2" t="inlineStr"/>
-      <c r="AO112" s="2" t="inlineStr"/>
-      <c r="AP112" s="2" t="inlineStr"/>
-      <c r="AQ112" s="2" t="inlineStr"/>
-      <c r="AR112" s="2" t="inlineStr"/>
-      <c r="AS112" s="2" t="inlineStr"/>
-      <c r="AT112" s="2" t="inlineStr"/>
-      <c r="AU112" s="2" t="inlineStr"/>
-      <c r="AV112" s="2" t="inlineStr"/>
-      <c r="AW112" s="2" t="inlineStr"/>
-      <c r="AX112" s="2" t="inlineStr"/>
-      <c r="AY112" s="2" t="inlineStr"/>
-      <c r="AZ112" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.6</t>
-        </is>
-      </c>
-      <c r="BA112" s="2" t="inlineStr">
-        <is>
-          <t>3335</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>LK710</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>1_8_DO_15</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>西部片区调压站</t>
-        </is>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="I113" s="3" t="inlineStr"/>
-      <c r="J113" s="3" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>R/W</t>
-        </is>
-      </c>
-      <c r="M113" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="N113" s="2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="O113" s="2" t="inlineStr"/>
-      <c r="P113" s="2" t="inlineStr"/>
-      <c r="Q113" s="2" t="inlineStr"/>
-      <c r="R113" s="2" t="inlineStr"/>
-      <c r="S113" s="2" t="inlineStr"/>
-      <c r="T113" s="2" t="inlineStr"/>
-      <c r="U113" s="2" t="inlineStr"/>
-      <c r="V113" s="2" t="inlineStr"/>
-      <c r="W113" s="2" t="inlineStr"/>
-      <c r="X113" s="2" t="inlineStr"/>
-      <c r="Y113" s="2" t="inlineStr"/>
-      <c r="Z113" s="2" t="inlineStr"/>
-      <c r="AA113" s="2" t="inlineStr"/>
-      <c r="AB113" s="2" t="inlineStr"/>
-      <c r="AC113" s="2" t="inlineStr"/>
-      <c r="AD113" s="2" t="inlineStr"/>
-      <c r="AE113" s="2" t="inlineStr"/>
-      <c r="AF113" s="2" t="inlineStr"/>
-      <c r="AG113" s="2" t="inlineStr"/>
-      <c r="AH113" s="2" t="inlineStr"/>
-      <c r="AI113" s="2" t="inlineStr"/>
-      <c r="AJ113" s="2" t="inlineStr"/>
-      <c r="AK113" s="2" t="inlineStr"/>
-      <c r="AL113" s="2" t="inlineStr"/>
-      <c r="AM113" s="2" t="inlineStr"/>
-      <c r="AN113" s="2" t="inlineStr"/>
-      <c r="AO113" s="2" t="inlineStr"/>
-      <c r="AP113" s="2" t="inlineStr"/>
-      <c r="AQ113" s="2" t="inlineStr"/>
-      <c r="AR113" s="2" t="inlineStr"/>
-      <c r="AS113" s="2" t="inlineStr"/>
-      <c r="AT113" s="2" t="inlineStr"/>
-      <c r="AU113" s="2" t="inlineStr"/>
-      <c r="AV113" s="2" t="inlineStr"/>
-      <c r="AW113" s="2" t="inlineStr"/>
-      <c r="AX113" s="2" t="inlineStr"/>
-      <c r="AY113" s="2" t="inlineStr"/>
-      <c r="AZ113" s="2" t="inlineStr">
-        <is>
-          <t>%MX41.7</t>
-        </is>
-      </c>
-      <c r="BA113" s="2" t="inlineStr">
-        <is>
-          <t>3336</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14000,12 +10768,12 @@
       <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>%MX42.0</t>
+          <t>%MX38.0</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
@@ -14036,12 +10804,12 @@
       <c r="H4" s="5" t="inlineStr"/>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>%MX42.1</t>
+          <t>%MX38.1</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>3306</t>
         </is>
       </c>
     </row>
@@ -14152,12 +10920,12 @@
       <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>%MX42.2</t>
+          <t>%MX38.2</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
@@ -14224,12 +10992,12 @@
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>%MX42.3</t>
+          <t>%MX38.3</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3308</t>
         </is>
       </c>
     </row>
@@ -14296,12 +11064,12 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>%MX42.4</t>
+          <t>%MX38.4</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>3309</t>
         </is>
       </c>
     </row>
@@ -14332,12 +11100,12 @@
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>%MX42.5</t>
+          <t>%MX38.5</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>3310</t>
         </is>
       </c>
     </row>
@@ -14448,12 +11216,12 @@
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>%MX42.6</t>
+          <t>%MX38.6</t>
         </is>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
@@ -14520,12 +11288,12 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>%MX42.7</t>
+          <t>%MX38.7</t>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3312</t>
         </is>
       </c>
     </row>
